--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D129801F-2A08-4C7C-9060-5627F621C77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F1448-A924-45AF-9DF4-894AEB2ADE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1882,6 +1882,969 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>102000</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>340</v>
+      </c>
+      <c r="E56">
+        <v>36</v>
+      </c>
+      <c r="F56">
+        <v>232</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>103500</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="D57">
+        <v>344</v>
+      </c>
+      <c r="E57">
+        <v>36</v>
+      </c>
+      <c r="F57">
+        <v>236</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>105000</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>348</v>
+      </c>
+      <c r="E58">
+        <v>36</v>
+      </c>
+      <c r="F58">
+        <v>240</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>106500</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>352</v>
+      </c>
+      <c r="E59">
+        <v>36</v>
+      </c>
+      <c r="F59">
+        <v>244</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>108000</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>356</v>
+      </c>
+      <c r="E60">
+        <v>36</v>
+      </c>
+      <c r="F60">
+        <v>248</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>109500</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>360</v>
+      </c>
+      <c r="E61">
+        <v>36</v>
+      </c>
+      <c r="F61">
+        <v>252</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>111000</v>
+      </c>
+      <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <v>364</v>
+      </c>
+      <c r="E62">
+        <v>36</v>
+      </c>
+      <c r="F62">
+        <v>256</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>112500</v>
+      </c>
+      <c r="C63">
+        <v>35</v>
+      </c>
+      <c r="D63">
+        <v>368</v>
+      </c>
+      <c r="E63">
+        <v>36</v>
+      </c>
+      <c r="F63">
+        <v>260</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>114000</v>
+      </c>
+      <c r="C64">
+        <v>35</v>
+      </c>
+      <c r="D64">
+        <v>372</v>
+      </c>
+      <c r="E64">
+        <v>36</v>
+      </c>
+      <c r="F64">
+        <v>264</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>115500</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65">
+        <v>376</v>
+      </c>
+      <c r="E65">
+        <v>36</v>
+      </c>
+      <c r="F65">
+        <v>268</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>117000</v>
+      </c>
+      <c r="C66">
+        <v>35</v>
+      </c>
+      <c r="D66">
+        <v>380</v>
+      </c>
+      <c r="E66">
+        <v>36</v>
+      </c>
+      <c r="F66">
+        <v>272</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>118500</v>
+      </c>
+      <c r="C67">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>384</v>
+      </c>
+      <c r="E67">
+        <v>36</v>
+      </c>
+      <c r="F67">
+        <v>276</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>120000</v>
+      </c>
+      <c r="C68">
+        <v>35</v>
+      </c>
+      <c r="D68">
+        <v>388</v>
+      </c>
+      <c r="E68">
+        <v>36</v>
+      </c>
+      <c r="F68">
+        <v>280</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>121500</v>
+      </c>
+      <c r="C69">
+        <v>35</v>
+      </c>
+      <c r="D69">
+        <v>392</v>
+      </c>
+      <c r="E69">
+        <v>36</v>
+      </c>
+      <c r="F69">
+        <v>284</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>123000</v>
+      </c>
+      <c r="C70">
+        <v>35</v>
+      </c>
+      <c r="D70">
+        <v>396</v>
+      </c>
+      <c r="E70">
+        <v>36</v>
+      </c>
+      <c r="F70">
+        <v>288</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>124500</v>
+      </c>
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>400</v>
+      </c>
+      <c r="E71">
+        <v>36</v>
+      </c>
+      <c r="F71">
+        <v>292</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>126000</v>
+      </c>
+      <c r="C72">
+        <v>35</v>
+      </c>
+      <c r="D72">
+        <v>404</v>
+      </c>
+      <c r="E72">
+        <v>36</v>
+      </c>
+      <c r="F72">
+        <v>296</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>127500</v>
+      </c>
+      <c r="C73">
+        <v>35</v>
+      </c>
+      <c r="D73">
+        <v>408</v>
+      </c>
+      <c r="E73">
+        <v>36</v>
+      </c>
+      <c r="F73">
+        <v>300</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>129000</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74">
+        <v>412</v>
+      </c>
+      <c r="E74">
+        <v>36</v>
+      </c>
+      <c r="F74">
+        <v>304</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>130500</v>
+      </c>
+      <c r="C75">
+        <v>35</v>
+      </c>
+      <c r="D75">
+        <v>416</v>
+      </c>
+      <c r="E75">
+        <v>36</v>
+      </c>
+      <c r="F75">
+        <v>308</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>132000</v>
+      </c>
+      <c r="C76">
+        <v>35</v>
+      </c>
+      <c r="D76">
+        <v>420</v>
+      </c>
+      <c r="E76">
+        <v>36</v>
+      </c>
+      <c r="F76">
+        <v>312</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>133500</v>
+      </c>
+      <c r="C77">
+        <v>35</v>
+      </c>
+      <c r="D77">
+        <v>424</v>
+      </c>
+      <c r="E77">
+        <v>36</v>
+      </c>
+      <c r="F77">
+        <v>316</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>135000</v>
+      </c>
+      <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78">
+        <v>428</v>
+      </c>
+      <c r="E78">
+        <v>36</v>
+      </c>
+      <c r="F78">
+        <v>320</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>136500</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
+      </c>
+      <c r="D79">
+        <v>432</v>
+      </c>
+      <c r="E79">
+        <v>36</v>
+      </c>
+      <c r="F79">
+        <v>324</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>138000</v>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80">
+        <v>436</v>
+      </c>
+      <c r="E80">
+        <v>36</v>
+      </c>
+      <c r="F80">
+        <v>328</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>139500</v>
+      </c>
+      <c r="C81">
+        <v>35</v>
+      </c>
+      <c r="D81">
+        <v>440</v>
+      </c>
+      <c r="E81">
+        <v>36</v>
+      </c>
+      <c r="F81">
+        <v>332</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>141000</v>
+      </c>
+      <c r="C82">
+        <v>35</v>
+      </c>
+      <c r="D82">
+        <v>444</v>
+      </c>
+      <c r="E82">
+        <v>36</v>
+      </c>
+      <c r="F82">
+        <v>336</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>142500</v>
+      </c>
+      <c r="C83">
+        <v>35</v>
+      </c>
+      <c r="D83">
+        <v>448</v>
+      </c>
+      <c r="E83">
+        <v>36</v>
+      </c>
+      <c r="F83">
+        <v>340</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>144000</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>452</v>
+      </c>
+      <c r="E84">
+        <v>36</v>
+      </c>
+      <c r="F84">
+        <v>344</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>145500</v>
+      </c>
+      <c r="C85">
+        <v>35</v>
+      </c>
+      <c r="D85">
+        <v>456</v>
+      </c>
+      <c r="E85">
+        <v>36</v>
+      </c>
+      <c r="F85">
+        <v>348</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>147000</v>
+      </c>
+      <c r="C86">
+        <v>35</v>
+      </c>
+      <c r="D86">
+        <v>460</v>
+      </c>
+      <c r="E86">
+        <v>36</v>
+      </c>
+      <c r="F86">
+        <v>352</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>148500</v>
+      </c>
+      <c r="C87">
+        <v>35</v>
+      </c>
+      <c r="D87">
+        <v>464</v>
+      </c>
+      <c r="E87">
+        <v>36</v>
+      </c>
+      <c r="F87">
+        <v>356</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>150000</v>
+      </c>
+      <c r="C88">
+        <v>35</v>
+      </c>
+      <c r="D88">
+        <v>468</v>
+      </c>
+      <c r="E88">
+        <v>36</v>
+      </c>
+      <c r="F88">
+        <v>360</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F1448-A924-45AF-9DF4-894AEB2ADE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE11C367-831F-41BE-8846-A6BF7605107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2740,111 +2740,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE11C367-831F-41BE-8846-A6BF7605107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F907AFD-085B-4FA2-A707-D2AEBF4E8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2740,6 +2740,630 @@
         <v>0</v>
       </c>
     </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>151500</v>
+      </c>
+      <c r="C89">
+        <v>35</v>
+      </c>
+      <c r="D89">
+        <v>472</v>
+      </c>
+      <c r="E89">
+        <v>36</v>
+      </c>
+      <c r="F89">
+        <v>364</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>153000</v>
+      </c>
+      <c r="C90">
+        <v>35</v>
+      </c>
+      <c r="D90">
+        <v>476</v>
+      </c>
+      <c r="E90">
+        <v>36</v>
+      </c>
+      <c r="F90">
+        <v>368</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>154500</v>
+      </c>
+      <c r="C91">
+        <v>35</v>
+      </c>
+      <c r="D91">
+        <v>480</v>
+      </c>
+      <c r="E91">
+        <v>36</v>
+      </c>
+      <c r="F91">
+        <v>372</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>156000</v>
+      </c>
+      <c r="C92">
+        <v>35</v>
+      </c>
+      <c r="D92">
+        <v>484</v>
+      </c>
+      <c r="E92">
+        <v>36</v>
+      </c>
+      <c r="F92">
+        <v>376</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>157500</v>
+      </c>
+      <c r="C93">
+        <v>35</v>
+      </c>
+      <c r="D93">
+        <v>488</v>
+      </c>
+      <c r="E93">
+        <v>36</v>
+      </c>
+      <c r="F93">
+        <v>380</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>159000</v>
+      </c>
+      <c r="C94">
+        <v>35</v>
+      </c>
+      <c r="D94">
+        <v>492</v>
+      </c>
+      <c r="E94">
+        <v>36</v>
+      </c>
+      <c r="F94">
+        <v>384</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>160500</v>
+      </c>
+      <c r="C95">
+        <v>35</v>
+      </c>
+      <c r="D95">
+        <v>496</v>
+      </c>
+      <c r="E95">
+        <v>36</v>
+      </c>
+      <c r="F95">
+        <v>388</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>162000</v>
+      </c>
+      <c r="C96">
+        <v>35</v>
+      </c>
+      <c r="D96">
+        <v>500</v>
+      </c>
+      <c r="E96">
+        <v>36</v>
+      </c>
+      <c r="F96">
+        <v>392</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>163500</v>
+      </c>
+      <c r="C97">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>504</v>
+      </c>
+      <c r="E97">
+        <v>36</v>
+      </c>
+      <c r="F97">
+        <v>396</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>165000</v>
+      </c>
+      <c r="C98">
+        <v>35</v>
+      </c>
+      <c r="D98">
+        <v>508</v>
+      </c>
+      <c r="E98">
+        <v>36</v>
+      </c>
+      <c r="F98">
+        <v>400</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>166500</v>
+      </c>
+      <c r="C99">
+        <v>35</v>
+      </c>
+      <c r="D99">
+        <v>512</v>
+      </c>
+      <c r="E99">
+        <v>36</v>
+      </c>
+      <c r="F99">
+        <v>404</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>168000</v>
+      </c>
+      <c r="C100">
+        <v>35</v>
+      </c>
+      <c r="D100">
+        <v>516</v>
+      </c>
+      <c r="E100">
+        <v>36</v>
+      </c>
+      <c r="F100">
+        <v>408</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>169500</v>
+      </c>
+      <c r="C101">
+        <v>35</v>
+      </c>
+      <c r="D101">
+        <v>520</v>
+      </c>
+      <c r="E101">
+        <v>36</v>
+      </c>
+      <c r="F101">
+        <v>412</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>171000</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+      <c r="D102">
+        <v>524</v>
+      </c>
+      <c r="E102">
+        <v>36</v>
+      </c>
+      <c r="F102">
+        <v>416</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>172500</v>
+      </c>
+      <c r="C103">
+        <v>35</v>
+      </c>
+      <c r="D103">
+        <v>528</v>
+      </c>
+      <c r="E103">
+        <v>36</v>
+      </c>
+      <c r="F103">
+        <v>420</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>174000</v>
+      </c>
+      <c r="C104">
+        <v>35</v>
+      </c>
+      <c r="D104">
+        <v>532</v>
+      </c>
+      <c r="E104">
+        <v>36</v>
+      </c>
+      <c r="F104">
+        <v>424</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>175500</v>
+      </c>
+      <c r="C105">
+        <v>35</v>
+      </c>
+      <c r="D105">
+        <v>536</v>
+      </c>
+      <c r="E105">
+        <v>36</v>
+      </c>
+      <c r="F105">
+        <v>428</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>177000</v>
+      </c>
+      <c r="C106">
+        <v>35</v>
+      </c>
+      <c r="D106">
+        <v>540</v>
+      </c>
+      <c r="E106">
+        <v>36</v>
+      </c>
+      <c r="F106">
+        <v>432</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>178500</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+      <c r="D107">
+        <v>544</v>
+      </c>
+      <c r="E107">
+        <v>36</v>
+      </c>
+      <c r="F107">
+        <v>436</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>180000</v>
+      </c>
+      <c r="C108">
+        <v>35</v>
+      </c>
+      <c r="D108">
+        <v>548</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>440</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>181500</v>
+      </c>
+      <c r="C109">
+        <v>35</v>
+      </c>
+      <c r="D109">
+        <v>552</v>
+      </c>
+      <c r="E109">
+        <v>36</v>
+      </c>
+      <c r="F109">
+        <v>444</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>183000</v>
+      </c>
+      <c r="C110">
+        <v>35</v>
+      </c>
+      <c r="D110">
+        <v>556</v>
+      </c>
+      <c r="E110">
+        <v>36</v>
+      </c>
+      <c r="F110">
+        <v>448</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>184500</v>
+      </c>
+      <c r="C111">
+        <v>35</v>
+      </c>
+      <c r="D111">
+        <v>560</v>
+      </c>
+      <c r="E111">
+        <v>36</v>
+      </c>
+      <c r="F111">
+        <v>452</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>186000</v>
+      </c>
+      <c r="C112">
+        <v>35</v>
+      </c>
+      <c r="D112">
+        <v>564</v>
+      </c>
+      <c r="E112">
+        <v>36</v>
+      </c>
+      <c r="F112">
+        <v>456</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F907AFD-085B-4FA2-A707-D2AEBF4E8641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249B397A-DCA1-4A4B-82DC-F06077FD4398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3364,6 +3364,1982 @@
         <v>0</v>
       </c>
     </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>187500</v>
+      </c>
+      <c r="C113">
+        <v>35</v>
+      </c>
+      <c r="D113">
+        <v>568</v>
+      </c>
+      <c r="E113">
+        <v>36</v>
+      </c>
+      <c r="F113">
+        <v>460</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>189000</v>
+      </c>
+      <c r="C114">
+        <v>35</v>
+      </c>
+      <c r="D114">
+        <v>572</v>
+      </c>
+      <c r="E114">
+        <v>36</v>
+      </c>
+      <c r="F114">
+        <v>464</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>190500</v>
+      </c>
+      <c r="C115">
+        <v>35</v>
+      </c>
+      <c r="D115">
+        <v>576</v>
+      </c>
+      <c r="E115">
+        <v>36</v>
+      </c>
+      <c r="F115">
+        <v>468</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>192000</v>
+      </c>
+      <c r="C116">
+        <v>35</v>
+      </c>
+      <c r="D116">
+        <v>580</v>
+      </c>
+      <c r="E116">
+        <v>36</v>
+      </c>
+      <c r="F116">
+        <v>472</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>193500</v>
+      </c>
+      <c r="C117">
+        <v>35</v>
+      </c>
+      <c r="D117">
+        <v>584</v>
+      </c>
+      <c r="E117">
+        <v>36</v>
+      </c>
+      <c r="F117">
+        <v>476</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>195000</v>
+      </c>
+      <c r="C118">
+        <v>35</v>
+      </c>
+      <c r="D118">
+        <v>588</v>
+      </c>
+      <c r="E118">
+        <v>36</v>
+      </c>
+      <c r="F118">
+        <v>480</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>196500</v>
+      </c>
+      <c r="C119">
+        <v>35</v>
+      </c>
+      <c r="D119">
+        <v>592</v>
+      </c>
+      <c r="E119">
+        <v>36</v>
+      </c>
+      <c r="F119">
+        <v>484</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>198000</v>
+      </c>
+      <c r="C120">
+        <v>35</v>
+      </c>
+      <c r="D120">
+        <v>596</v>
+      </c>
+      <c r="E120">
+        <v>36</v>
+      </c>
+      <c r="F120">
+        <v>488</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>199500</v>
+      </c>
+      <c r="C121">
+        <v>35</v>
+      </c>
+      <c r="D121">
+        <v>600</v>
+      </c>
+      <c r="E121">
+        <v>36</v>
+      </c>
+      <c r="F121">
+        <v>492</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>201000</v>
+      </c>
+      <c r="C122">
+        <v>35</v>
+      </c>
+      <c r="D122">
+        <v>604</v>
+      </c>
+      <c r="E122">
+        <v>36</v>
+      </c>
+      <c r="F122">
+        <v>496</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>202500</v>
+      </c>
+      <c r="C123">
+        <v>35</v>
+      </c>
+      <c r="D123">
+        <v>608</v>
+      </c>
+      <c r="E123">
+        <v>36</v>
+      </c>
+      <c r="F123">
+        <v>500</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>204000</v>
+      </c>
+      <c r="C124">
+        <v>35</v>
+      </c>
+      <c r="D124">
+        <v>612</v>
+      </c>
+      <c r="E124">
+        <v>36</v>
+      </c>
+      <c r="F124">
+        <v>504</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>205500</v>
+      </c>
+      <c r="C125">
+        <v>35</v>
+      </c>
+      <c r="D125">
+        <v>616</v>
+      </c>
+      <c r="E125">
+        <v>36</v>
+      </c>
+      <c r="F125">
+        <v>508</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>207000</v>
+      </c>
+      <c r="C126">
+        <v>35</v>
+      </c>
+      <c r="D126">
+        <v>620</v>
+      </c>
+      <c r="E126">
+        <v>36</v>
+      </c>
+      <c r="F126">
+        <v>512</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>208500</v>
+      </c>
+      <c r="C127">
+        <v>35</v>
+      </c>
+      <c r="D127">
+        <v>624</v>
+      </c>
+      <c r="E127">
+        <v>36</v>
+      </c>
+      <c r="F127">
+        <v>516</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>210000</v>
+      </c>
+      <c r="C128">
+        <v>35</v>
+      </c>
+      <c r="D128">
+        <v>628</v>
+      </c>
+      <c r="E128">
+        <v>36</v>
+      </c>
+      <c r="F128">
+        <v>520</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>211500</v>
+      </c>
+      <c r="C129">
+        <v>35</v>
+      </c>
+      <c r="D129">
+        <v>632</v>
+      </c>
+      <c r="E129">
+        <v>36</v>
+      </c>
+      <c r="F129">
+        <v>524</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>213000</v>
+      </c>
+      <c r="C130">
+        <v>35</v>
+      </c>
+      <c r="D130">
+        <v>636</v>
+      </c>
+      <c r="E130">
+        <v>36</v>
+      </c>
+      <c r="F130">
+        <v>528</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>214500</v>
+      </c>
+      <c r="C131">
+        <v>35</v>
+      </c>
+      <c r="D131">
+        <v>640</v>
+      </c>
+      <c r="E131">
+        <v>36</v>
+      </c>
+      <c r="F131">
+        <v>532</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>216000</v>
+      </c>
+      <c r="C132">
+        <v>35</v>
+      </c>
+      <c r="D132">
+        <v>644</v>
+      </c>
+      <c r="E132">
+        <v>36</v>
+      </c>
+      <c r="F132">
+        <v>536</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>217500</v>
+      </c>
+      <c r="C133">
+        <v>35</v>
+      </c>
+      <c r="D133">
+        <v>648</v>
+      </c>
+      <c r="E133">
+        <v>36</v>
+      </c>
+      <c r="F133">
+        <v>540</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>219000</v>
+      </c>
+      <c r="C134">
+        <v>35</v>
+      </c>
+      <c r="D134">
+        <v>652</v>
+      </c>
+      <c r="E134">
+        <v>36</v>
+      </c>
+      <c r="F134">
+        <v>544</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>220500</v>
+      </c>
+      <c r="C135">
+        <v>35</v>
+      </c>
+      <c r="D135">
+        <v>656</v>
+      </c>
+      <c r="E135">
+        <v>36</v>
+      </c>
+      <c r="F135">
+        <v>548</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>222000</v>
+      </c>
+      <c r="C136">
+        <v>35</v>
+      </c>
+      <c r="D136">
+        <v>660</v>
+      </c>
+      <c r="E136">
+        <v>36</v>
+      </c>
+      <c r="F136">
+        <v>552</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>223500</v>
+      </c>
+      <c r="C137">
+        <v>35</v>
+      </c>
+      <c r="D137">
+        <v>664</v>
+      </c>
+      <c r="E137">
+        <v>36</v>
+      </c>
+      <c r="F137">
+        <v>556</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>225000</v>
+      </c>
+      <c r="C138">
+        <v>35</v>
+      </c>
+      <c r="D138">
+        <v>668</v>
+      </c>
+      <c r="E138">
+        <v>36</v>
+      </c>
+      <c r="F138">
+        <v>560</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>226500</v>
+      </c>
+      <c r="C139">
+        <v>35</v>
+      </c>
+      <c r="D139">
+        <v>672</v>
+      </c>
+      <c r="E139">
+        <v>36</v>
+      </c>
+      <c r="F139">
+        <v>564</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>228000</v>
+      </c>
+      <c r="C140">
+        <v>35</v>
+      </c>
+      <c r="D140">
+        <v>676</v>
+      </c>
+      <c r="E140">
+        <v>36</v>
+      </c>
+      <c r="F140">
+        <v>568</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>229500</v>
+      </c>
+      <c r="C141">
+        <v>35</v>
+      </c>
+      <c r="D141">
+        <v>680</v>
+      </c>
+      <c r="E141">
+        <v>36</v>
+      </c>
+      <c r="F141">
+        <v>572</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>231000</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+      <c r="D142">
+        <v>684</v>
+      </c>
+      <c r="E142">
+        <v>36</v>
+      </c>
+      <c r="F142">
+        <v>576</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>232500</v>
+      </c>
+      <c r="C143">
+        <v>35</v>
+      </c>
+      <c r="D143">
+        <v>688</v>
+      </c>
+      <c r="E143">
+        <v>36</v>
+      </c>
+      <c r="F143">
+        <v>580</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>234000</v>
+      </c>
+      <c r="C144">
+        <v>35</v>
+      </c>
+      <c r="D144">
+        <v>692</v>
+      </c>
+      <c r="E144">
+        <v>36</v>
+      </c>
+      <c r="F144">
+        <v>584</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>235500</v>
+      </c>
+      <c r="C145">
+        <v>35</v>
+      </c>
+      <c r="D145">
+        <v>696</v>
+      </c>
+      <c r="E145">
+        <v>36</v>
+      </c>
+      <c r="F145">
+        <v>588</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>237000</v>
+      </c>
+      <c r="C146">
+        <v>35</v>
+      </c>
+      <c r="D146">
+        <v>700</v>
+      </c>
+      <c r="E146">
+        <v>36</v>
+      </c>
+      <c r="F146">
+        <v>592</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>238500</v>
+      </c>
+      <c r="C147">
+        <v>35</v>
+      </c>
+      <c r="D147">
+        <v>704</v>
+      </c>
+      <c r="E147">
+        <v>36</v>
+      </c>
+      <c r="F147">
+        <v>596</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>240000</v>
+      </c>
+      <c r="C148">
+        <v>35</v>
+      </c>
+      <c r="D148">
+        <v>708</v>
+      </c>
+      <c r="E148">
+        <v>36</v>
+      </c>
+      <c r="F148">
+        <v>600</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>241500</v>
+      </c>
+      <c r="C149">
+        <v>35</v>
+      </c>
+      <c r="D149">
+        <v>712</v>
+      </c>
+      <c r="E149">
+        <v>36</v>
+      </c>
+      <c r="F149">
+        <v>604</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>243000</v>
+      </c>
+      <c r="C150">
+        <v>35</v>
+      </c>
+      <c r="D150">
+        <v>716</v>
+      </c>
+      <c r="E150">
+        <v>36</v>
+      </c>
+      <c r="F150">
+        <v>608</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>244500</v>
+      </c>
+      <c r="C151">
+        <v>35</v>
+      </c>
+      <c r="D151">
+        <v>720</v>
+      </c>
+      <c r="E151">
+        <v>36</v>
+      </c>
+      <c r="F151">
+        <v>612</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>246000</v>
+      </c>
+      <c r="C152">
+        <v>35</v>
+      </c>
+      <c r="D152">
+        <v>724</v>
+      </c>
+      <c r="E152">
+        <v>36</v>
+      </c>
+      <c r="F152">
+        <v>616</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>247500</v>
+      </c>
+      <c r="C153">
+        <v>35</v>
+      </c>
+      <c r="D153">
+        <v>728</v>
+      </c>
+      <c r="E153">
+        <v>36</v>
+      </c>
+      <c r="F153">
+        <v>620</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>249000</v>
+      </c>
+      <c r="C154">
+        <v>35</v>
+      </c>
+      <c r="D154">
+        <v>732</v>
+      </c>
+      <c r="E154">
+        <v>36</v>
+      </c>
+      <c r="F154">
+        <v>624</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>250500</v>
+      </c>
+      <c r="C155">
+        <v>35</v>
+      </c>
+      <c r="D155">
+        <v>736</v>
+      </c>
+      <c r="E155">
+        <v>36</v>
+      </c>
+      <c r="F155">
+        <v>628</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>252000</v>
+      </c>
+      <c r="C156">
+        <v>35</v>
+      </c>
+      <c r="D156">
+        <v>740</v>
+      </c>
+      <c r="E156">
+        <v>36</v>
+      </c>
+      <c r="F156">
+        <v>632</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>253500</v>
+      </c>
+      <c r="C157">
+        <v>35</v>
+      </c>
+      <c r="D157">
+        <v>744</v>
+      </c>
+      <c r="E157">
+        <v>36</v>
+      </c>
+      <c r="F157">
+        <v>636</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>255000</v>
+      </c>
+      <c r="C158">
+        <v>35</v>
+      </c>
+      <c r="D158">
+        <v>748</v>
+      </c>
+      <c r="E158">
+        <v>36</v>
+      </c>
+      <c r="F158">
+        <v>640</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>256500</v>
+      </c>
+      <c r="C159">
+        <v>35</v>
+      </c>
+      <c r="D159">
+        <v>752</v>
+      </c>
+      <c r="E159">
+        <v>36</v>
+      </c>
+      <c r="F159">
+        <v>644</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>258000</v>
+      </c>
+      <c r="C160">
+        <v>35</v>
+      </c>
+      <c r="D160">
+        <v>756</v>
+      </c>
+      <c r="E160">
+        <v>36</v>
+      </c>
+      <c r="F160">
+        <v>648</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>259500</v>
+      </c>
+      <c r="C161">
+        <v>35</v>
+      </c>
+      <c r="D161">
+        <v>760</v>
+      </c>
+      <c r="E161">
+        <v>36</v>
+      </c>
+      <c r="F161">
+        <v>652</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>261000</v>
+      </c>
+      <c r="C162">
+        <v>35</v>
+      </c>
+      <c r="D162">
+        <v>764</v>
+      </c>
+      <c r="E162">
+        <v>36</v>
+      </c>
+      <c r="F162">
+        <v>656</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>262500</v>
+      </c>
+      <c r="C163">
+        <v>35</v>
+      </c>
+      <c r="D163">
+        <v>768</v>
+      </c>
+      <c r="E163">
+        <v>36</v>
+      </c>
+      <c r="F163">
+        <v>660</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>264000</v>
+      </c>
+      <c r="C164">
+        <v>35</v>
+      </c>
+      <c r="D164">
+        <v>772</v>
+      </c>
+      <c r="E164">
+        <v>36</v>
+      </c>
+      <c r="F164">
+        <v>664</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>265500</v>
+      </c>
+      <c r="C165">
+        <v>35</v>
+      </c>
+      <c r="D165">
+        <v>776</v>
+      </c>
+      <c r="E165">
+        <v>36</v>
+      </c>
+      <c r="F165">
+        <v>668</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>267000</v>
+      </c>
+      <c r="C166">
+        <v>35</v>
+      </c>
+      <c r="D166">
+        <v>780</v>
+      </c>
+      <c r="E166">
+        <v>36</v>
+      </c>
+      <c r="F166">
+        <v>672</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>268500</v>
+      </c>
+      <c r="C167">
+        <v>35</v>
+      </c>
+      <c r="D167">
+        <v>784</v>
+      </c>
+      <c r="E167">
+        <v>36</v>
+      </c>
+      <c r="F167">
+        <v>676</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>270000</v>
+      </c>
+      <c r="C168">
+        <v>35</v>
+      </c>
+      <c r="D168">
+        <v>788</v>
+      </c>
+      <c r="E168">
+        <v>36</v>
+      </c>
+      <c r="F168">
+        <v>680</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>271500</v>
+      </c>
+      <c r="C169">
+        <v>35</v>
+      </c>
+      <c r="D169">
+        <v>792</v>
+      </c>
+      <c r="E169">
+        <v>36</v>
+      </c>
+      <c r="F169">
+        <v>684</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>273000</v>
+      </c>
+      <c r="C170">
+        <v>35</v>
+      </c>
+      <c r="D170">
+        <v>796</v>
+      </c>
+      <c r="E170">
+        <v>36</v>
+      </c>
+      <c r="F170">
+        <v>688</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>274500</v>
+      </c>
+      <c r="C171">
+        <v>35</v>
+      </c>
+      <c r="D171">
+        <v>800</v>
+      </c>
+      <c r="E171">
+        <v>36</v>
+      </c>
+      <c r="F171">
+        <v>692</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>276000</v>
+      </c>
+      <c r="C172">
+        <v>35</v>
+      </c>
+      <c r="D172">
+        <v>804</v>
+      </c>
+      <c r="E172">
+        <v>36</v>
+      </c>
+      <c r="F172">
+        <v>696</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>277500</v>
+      </c>
+      <c r="C173">
+        <v>35</v>
+      </c>
+      <c r="D173">
+        <v>808</v>
+      </c>
+      <c r="E173">
+        <v>36</v>
+      </c>
+      <c r="F173">
+        <v>700</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>279000</v>
+      </c>
+      <c r="C174">
+        <v>35</v>
+      </c>
+      <c r="D174">
+        <v>812</v>
+      </c>
+      <c r="E174">
+        <v>36</v>
+      </c>
+      <c r="F174">
+        <v>704</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>280500</v>
+      </c>
+      <c r="C175">
+        <v>35</v>
+      </c>
+      <c r="D175">
+        <v>816</v>
+      </c>
+      <c r="E175">
+        <v>36</v>
+      </c>
+      <c r="F175">
+        <v>708</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>282000</v>
+      </c>
+      <c r="C176">
+        <v>35</v>
+      </c>
+      <c r="D176">
+        <v>820</v>
+      </c>
+      <c r="E176">
+        <v>36</v>
+      </c>
+      <c r="F176">
+        <v>712</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>283500</v>
+      </c>
+      <c r="C177">
+        <v>35</v>
+      </c>
+      <c r="D177">
+        <v>824</v>
+      </c>
+      <c r="E177">
+        <v>36</v>
+      </c>
+      <c r="F177">
+        <v>716</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>285000</v>
+      </c>
+      <c r="C178">
+        <v>35</v>
+      </c>
+      <c r="D178">
+        <v>828</v>
+      </c>
+      <c r="E178">
+        <v>36</v>
+      </c>
+      <c r="F178">
+        <v>720</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>286500</v>
+      </c>
+      <c r="C179">
+        <v>35</v>
+      </c>
+      <c r="D179">
+        <v>832</v>
+      </c>
+      <c r="E179">
+        <v>36</v>
+      </c>
+      <c r="F179">
+        <v>724</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>288000</v>
+      </c>
+      <c r="C180">
+        <v>35</v>
+      </c>
+      <c r="D180">
+        <v>836</v>
+      </c>
+      <c r="E180">
+        <v>36</v>
+      </c>
+      <c r="F180">
+        <v>728</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>289500</v>
+      </c>
+      <c r="C181">
+        <v>35</v>
+      </c>
+      <c r="D181">
+        <v>840</v>
+      </c>
+      <c r="E181">
+        <v>36</v>
+      </c>
+      <c r="F181">
+        <v>732</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>291000</v>
+      </c>
+      <c r="C182">
+        <v>35</v>
+      </c>
+      <c r="D182">
+        <v>844</v>
+      </c>
+      <c r="E182">
+        <v>36</v>
+      </c>
+      <c r="F182">
+        <v>736</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>292500</v>
+      </c>
+      <c r="C183">
+        <v>35</v>
+      </c>
+      <c r="D183">
+        <v>848</v>
+      </c>
+      <c r="E183">
+        <v>36</v>
+      </c>
+      <c r="F183">
+        <v>740</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>294000</v>
+      </c>
+      <c r="C184">
+        <v>35</v>
+      </c>
+      <c r="D184">
+        <v>852</v>
+      </c>
+      <c r="E184">
+        <v>36</v>
+      </c>
+      <c r="F184">
+        <v>744</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>295500</v>
+      </c>
+      <c r="C185">
+        <v>35</v>
+      </c>
+      <c r="D185">
+        <v>856</v>
+      </c>
+      <c r="E185">
+        <v>36</v>
+      </c>
+      <c r="F185">
+        <v>748</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>297000</v>
+      </c>
+      <c r="C186">
+        <v>35</v>
+      </c>
+      <c r="D186">
+        <v>860</v>
+      </c>
+      <c r="E186">
+        <v>36</v>
+      </c>
+      <c r="F186">
+        <v>752</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>298500</v>
+      </c>
+      <c r="C187">
+        <v>35</v>
+      </c>
+      <c r="D187">
+        <v>864</v>
+      </c>
+      <c r="E187">
+        <v>36</v>
+      </c>
+      <c r="F187">
+        <v>756</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>300000</v>
+      </c>
+      <c r="C188">
+        <v>35</v>
+      </c>
+      <c r="D188">
+        <v>868</v>
+      </c>
+      <c r="E188">
+        <v>36</v>
+      </c>
+      <c r="F188">
+        <v>760</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DragonBall.xlsx
+++ b/Assets/06.Table/DragonBall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249B397A-DCA1-4A4B-82DC-F06077FD4398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176137D-4C91-4F51-9F8C-495CCC95D42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DragonBall" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J185" sqref="J185"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5340,6 +5340,1748 @@
         <v>0</v>
       </c>
     </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>301500</v>
+      </c>
+      <c r="C189">
+        <v>35</v>
+      </c>
+      <c r="D189">
+        <v>872</v>
+      </c>
+      <c r="E189">
+        <v>36</v>
+      </c>
+      <c r="F189">
+        <v>764</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>303000</v>
+      </c>
+      <c r="C190">
+        <v>35</v>
+      </c>
+      <c r="D190">
+        <v>876</v>
+      </c>
+      <c r="E190">
+        <v>36</v>
+      </c>
+      <c r="F190">
+        <v>768</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>304500</v>
+      </c>
+      <c r="C191">
+        <v>35</v>
+      </c>
+      <c r="D191">
+        <v>880</v>
+      </c>
+      <c r="E191">
+        <v>36</v>
+      </c>
+      <c r="F191">
+        <v>772</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>306000</v>
+      </c>
+      <c r="C192">
+        <v>35</v>
+      </c>
+      <c r="D192">
+        <v>884</v>
+      </c>
+      <c r="E192">
+        <v>36</v>
+      </c>
+      <c r="F192">
+        <v>776</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>307500</v>
+      </c>
+      <c r="C193">
+        <v>35</v>
+      </c>
+      <c r="D193">
+        <v>888</v>
+      </c>
+      <c r="E193">
+        <v>36</v>
+      </c>
+      <c r="F193">
+        <v>780</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>309000</v>
+      </c>
+      <c r="C194">
+        <v>35</v>
+      </c>
+      <c r="D194">
+        <v>892</v>
+      </c>
+      <c r="E194">
+        <v>36</v>
+      </c>
+      <c r="F194">
+        <v>784</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>310500</v>
+      </c>
+      <c r="C195">
+        <v>35</v>
+      </c>
+      <c r="D195">
+        <v>896</v>
+      </c>
+      <c r="E195">
+        <v>36</v>
+      </c>
+      <c r="F195">
+        <v>788</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>312000</v>
+      </c>
+      <c r="C196">
+        <v>35</v>
+      </c>
+      <c r="D196">
+        <v>900</v>
+      </c>
+      <c r="E196">
+        <v>36</v>
+      </c>
+      <c r="F196">
+        <v>792</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>313500</v>
+      </c>
+      <c r="C197">
+        <v>35</v>
+      </c>
+      <c r="D197">
+        <v>904</v>
+      </c>
+      <c r="E197">
+        <v>36</v>
+      </c>
+      <c r="F197">
+        <v>796</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>315000</v>
+      </c>
+      <c r="C198">
+        <v>35</v>
+      </c>
+      <c r="D198">
+        <v>908</v>
+      </c>
+      <c r="E198">
+        <v>36</v>
+      </c>
+      <c r="F198">
+        <v>800</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>316500</v>
+      </c>
+      <c r="C199">
+        <v>35</v>
+      </c>
+      <c r="D199">
+        <v>912</v>
+      </c>
+      <c r="E199">
+        <v>36</v>
+      </c>
+      <c r="F199">
+        <v>804</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>318000</v>
+      </c>
+      <c r="C200">
+        <v>35</v>
+      </c>
+      <c r="D200">
+        <v>916</v>
+      </c>
+      <c r="E200">
+        <v>36</v>
+      </c>
+      <c r="F200">
+        <v>808</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>319500</v>
+      </c>
+      <c r="C201">
+        <v>35</v>
+      </c>
+      <c r="D201">
+        <v>920</v>
+      </c>
+      <c r="E201">
+        <v>36</v>
+      </c>
+      <c r="F201">
+        <v>812</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>321000</v>
+      </c>
+      <c r="C202">
+        <v>35</v>
+      </c>
+      <c r="D202">
+        <v>924</v>
+      </c>
+      <c r="E202">
+        <v>36</v>
+      </c>
+      <c r="F202">
+        <v>816</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>322500</v>
+      </c>
+      <c r="C203">
+        <v>35</v>
+      </c>
+      <c r="D203">
+        <v>928</v>
+      </c>
+      <c r="E203">
+        <v>36</v>
+      </c>
+      <c r="F203">
+        <v>820</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>324000</v>
+      </c>
+      <c r="C204">
+        <v>35</v>
+      </c>
+      <c r="D204">
+        <v>932</v>
+      </c>
+      <c r="E204">
+        <v>36</v>
+      </c>
+      <c r="F204">
+        <v>824</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>325500</v>
+      </c>
+      <c r="C205">
+        <v>35</v>
+      </c>
+      <c r="D205">
+        <v>936</v>
+      </c>
+      <c r="E205">
+        <v>36</v>
+      </c>
+      <c r="F205">
+        <v>828</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>327000</v>
+      </c>
+      <c r="C206">
+        <v>35</v>
+      </c>
+      <c r="D206">
+        <v>940</v>
+      </c>
+      <c r="E206">
+        <v>36</v>
+      </c>
+      <c r="F206">
+        <v>832</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>328500</v>
+      </c>
+      <c r="C207">
+        <v>35</v>
+      </c>
+      <c r="D207">
+        <v>944</v>
+      </c>
+      <c r="E207">
+        <v>36</v>
+      </c>
+      <c r="F207">
+        <v>836</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>330000</v>
+      </c>
+      <c r="C208">
+        <v>35</v>
+      </c>
+      <c r="D208">
+        <v>948</v>
+      </c>
+      <c r="E208">
+        <v>36</v>
+      </c>
+      <c r="F208">
+        <v>840</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>331500</v>
+      </c>
+      <c r="C209">
+        <v>35</v>
+      </c>
+      <c r="D209">
+        <v>952</v>
+      </c>
+      <c r="E209">
+        <v>36</v>
+      </c>
+      <c r="F209">
+        <v>844</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>333000</v>
+      </c>
+      <c r="C210">
+        <v>35</v>
+      </c>
+      <c r="D210">
+        <v>956</v>
+      </c>
+      <c r="E210">
+        <v>36</v>
+      </c>
+      <c r="F210">
+        <v>848</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>334500</v>
+      </c>
+      <c r="C211">
+        <v>35</v>
+      </c>
+      <c r="D211">
+        <v>960</v>
+      </c>
+      <c r="E211">
+        <v>36</v>
+      </c>
+      <c r="F211">
+        <v>852</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>336000</v>
+      </c>
+      <c r="C212">
+        <v>35</v>
+      </c>
+      <c r="D212">
+        <v>964</v>
+      </c>
+      <c r="E212">
+        <v>36</v>
+      </c>
+      <c r="F212">
+        <v>856</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>337500</v>
+      </c>
+      <c r="C213">
+        <v>35</v>
+      </c>
+      <c r="D213">
+        <v>968</v>
+      </c>
+      <c r="E213">
+        <v>36</v>
+      </c>
+      <c r="F213">
+        <v>860</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>339000</v>
+      </c>
+      <c r="C214">
+        <v>35</v>
+      </c>
+      <c r="D214">
+        <v>972</v>
+      </c>
+      <c r="E214">
+        <v>36</v>
+      </c>
+      <c r="F214">
+        <v>864</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>340500</v>
+      </c>
+      <c r="C215">
+        <v>35</v>
+      </c>
+      <c r="D215">
+        <v>976</v>
+      </c>
+      <c r="E215">
+        <v>36</v>
+      </c>
+      <c r="F215">
+        <v>868</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>342000</v>
+      </c>
+      <c r="C216">
+        <v>35</v>
+      </c>
+      <c r="D216">
+        <v>980</v>
+      </c>
+      <c r="E216">
+        <v>36</v>
+      </c>
+      <c r="F216">
+        <v>872</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>343500</v>
+      </c>
+      <c r="C217">
+        <v>35</v>
+      </c>
+      <c r="D217">
+        <v>984</v>
+      </c>
+      <c r="E217">
+        <v>36</v>
+      </c>
+      <c r="F217">
+        <v>876</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>345000</v>
+      </c>
+      <c r="C218">
+        <v>35</v>
+      </c>
+      <c r="D218">
+        <v>988</v>
+      </c>
+      <c r="E218">
+        <v>36</v>
+      </c>
+      <c r="F218">
+        <v>880</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>346500</v>
+      </c>
+      <c r="C219">
+        <v>35</v>
+      </c>
+      <c r="D219">
+        <v>992</v>
+      </c>
+      <c r="E219">
+        <v>36</v>
+      </c>
+      <c r="F219">
+        <v>884</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>348000</v>
+      </c>
+      <c r="C220">
+        <v>35</v>
+      </c>
+      <c r="D220">
+        <v>996</v>
+      </c>
+      <c r="E220">
+        <v>36</v>
+      </c>
+      <c r="F220">
+        <v>888</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>349500</v>
+      </c>
+      <c r="C221">
+        <v>35</v>
+      </c>
+      <c r="D221">
+        <v>1000</v>
+      </c>
+      <c r="E221">
+        <v>36</v>
+      </c>
+      <c r="F221">
+        <v>892</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>351000</v>
+      </c>
+      <c r="C222">
+        <v>35</v>
+      </c>
+      <c r="D222">
+        <v>1004</v>
+      </c>
+      <c r="E222">
+        <v>36</v>
+      </c>
+      <c r="F222">
+        <v>896</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>352500</v>
+      </c>
+      <c r="C223">
+        <v>35</v>
+      </c>
+      <c r="D223">
+        <v>1008</v>
+      </c>
+      <c r="E223">
+        <v>36</v>
+      </c>
+      <c r="F223">
+        <v>900</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>354000</v>
+      </c>
+      <c r="C224">
+        <v>35</v>
+      </c>
+      <c r="D224">
+        <v>1012</v>
+      </c>
+      <c r="E224">
+        <v>36</v>
+      </c>
+      <c r="F224">
+        <v>904</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>355500</v>
+      </c>
+      <c r="C225">
+        <v>35</v>
+      </c>
+      <c r="D225">
+        <v>1016</v>
+      </c>
+      <c r="E225">
+        <v>36</v>
+      </c>
+      <c r="F225">
+        <v>908</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>357000</v>
+      </c>
+      <c r="C226">
+        <v>35</v>
+      </c>
+      <c r="D226">
+        <v>1020</v>
+      </c>
+      <c r="E226">
+        <v>36</v>
+      </c>
+      <c r="F226">
+        <v>912</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>358500</v>
+      </c>
+      <c r="C227">
+        <v>35</v>
+      </c>
+      <c r="D227">
+        <v>1024</v>
+      </c>
+      <c r="E227">
+        <v>36</v>
+      </c>
+      <c r="F227">
+        <v>916</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>360000</v>
+      </c>
+      <c r="C228">
+        <v>35</v>
+      </c>
+      <c r="D228">
+        <v>1028</v>
+      </c>
+      <c r="E228">
+        <v>36</v>
+      </c>
+      <c r="F228">
+        <v>920</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>361500</v>
+      </c>
+      <c r="C229">
+        <v>35</v>
+      </c>
+      <c r="D229">
+        <v>1032</v>
+      </c>
+      <c r="E229">
+        <v>36</v>
+      </c>
+      <c r="F229">
+        <v>924</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>363000</v>
+      </c>
+      <c r="C230">
+        <v>35</v>
+      </c>
+      <c r="D230">
+        <v>1036</v>
+      </c>
+      <c r="E230">
+        <v>36</v>
+      </c>
+      <c r="F230">
+        <v>928</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>364500</v>
+      </c>
+      <c r="C231">
+        <v>35</v>
+      </c>
+      <c r="D231">
+        <v>1040</v>
+      </c>
+      <c r="E231">
+        <v>36</v>
+      </c>
+      <c r="F231">
+        <v>932</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>366000</v>
+      </c>
+      <c r="C232">
+        <v>35</v>
+      </c>
+      <c r="D232">
+        <v>1044</v>
+      </c>
+      <c r="E232">
+        <v>36</v>
+      </c>
+      <c r="F232">
+        <v>936</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>367500</v>
+      </c>
+      <c r="C233">
+        <v>35</v>
+      </c>
+      <c r="D233">
+        <v>1048</v>
+      </c>
+      <c r="E233">
+        <v>36</v>
+      </c>
+      <c r="F233">
+        <v>940</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>369000</v>
+      </c>
+      <c r="C234">
+        <v>35</v>
+      </c>
+      <c r="D234">
+        <v>1052</v>
+      </c>
+      <c r="E234">
+        <v>36</v>
+      </c>
+      <c r="F234">
+        <v>944</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>370500</v>
+      </c>
+      <c r="C235">
+        <v>35</v>
+      </c>
+      <c r="D235">
+        <v>1056</v>
+      </c>
+      <c r="E235">
+        <v>36</v>
+      </c>
+      <c r="F235">
+        <v>948</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>372000</v>
+      </c>
+      <c r="C236">
+        <v>35</v>
+      </c>
+      <c r="D236">
+        <v>1060</v>
+      </c>
+      <c r="E236">
+        <v>36</v>
+      </c>
+      <c r="F236">
+        <v>952</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>373500</v>
+      </c>
+      <c r="C237">
+        <v>35</v>
+      </c>
+      <c r="D237">
+        <v>1064</v>
+      </c>
+      <c r="E237">
+        <v>36</v>
+      </c>
+      <c r="F237">
+        <v>956</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>375000</v>
+      </c>
+      <c r="C238">
+        <v>35</v>
+      </c>
+      <c r="D238">
+        <v>1068</v>
+      </c>
+      <c r="E238">
+        <v>36</v>
+      </c>
+      <c r="F238">
+        <v>960</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>376500</v>
+      </c>
+      <c r="C239">
+        <v>35</v>
+      </c>
+      <c r="D239">
+        <v>1072</v>
+      </c>
+      <c r="E239">
+        <v>36</v>
+      </c>
+      <c r="F239">
+        <v>964</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>378000</v>
+      </c>
+      <c r="C240">
+        <v>35</v>
+      </c>
+      <c r="D240">
+        <v>1076</v>
+      </c>
+      <c r="E240">
+        <v>36</v>
+      </c>
+      <c r="F240">
+        <v>968</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>379500</v>
+      </c>
+      <c r="C241">
+        <v>35</v>
+      </c>
+      <c r="D241">
+        <v>1080</v>
+      </c>
+      <c r="E241">
+        <v>36</v>
+      </c>
+      <c r="F241">
+        <v>972</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>381000</v>
+      </c>
+      <c r="C242">
+        <v>35</v>
+      </c>
+      <c r="D242">
+        <v>1084</v>
+      </c>
+      <c r="E242">
+        <v>36</v>
+      </c>
+      <c r="F242">
+        <v>976</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>382500</v>
+      </c>
+      <c r="C243">
+        <v>35</v>
+      </c>
+      <c r="D243">
+        <v>1088</v>
+      </c>
+      <c r="E243">
+        <v>36</v>
+      </c>
+      <c r="F243">
+        <v>980</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>384000</v>
+      </c>
+      <c r="C244">
+        <v>35</v>
+      </c>
+      <c r="D244">
+        <v>1092</v>
+      </c>
+      <c r="E244">
+        <v>36</v>
+      </c>
+      <c r="F244">
+        <v>984</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>385500</v>
+      </c>
+      <c r="C245">
+        <v>35</v>
+      </c>
+      <c r="D245">
+        <v>1096</v>
+      </c>
+      <c r="E245">
+        <v>36</v>
+      </c>
+      <c r="F245">
+        <v>988</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>387000</v>
+      </c>
+      <c r="C246">
+        <v>35</v>
+      </c>
+      <c r="D246">
+        <v>1100</v>
+      </c>
+      <c r="E246">
+        <v>36</v>
+      </c>
+      <c r="F246">
+        <v>992</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>388500</v>
+      </c>
+      <c r="C247">
+        <v>35</v>
+      </c>
+      <c r="D247">
+        <v>1104</v>
+      </c>
+      <c r="E247">
+        <v>36</v>
+      </c>
+      <c r="F247">
+        <v>996</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>390000</v>
+      </c>
+      <c r="C248">
+        <v>35</v>
+      </c>
+      <c r="D248">
+        <v>1108</v>
+      </c>
+      <c r="E248">
+        <v>36</v>
+      </c>
+      <c r="F248">
+        <v>1000</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>391500</v>
+      </c>
+      <c r="C249">
+        <v>35</v>
+      </c>
+      <c r="D249">
+        <v>1112</v>
+      </c>
+      <c r="E249">
+        <v>36</v>
+      </c>
+      <c r="F249">
+        <v>1004</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>393000</v>
+      </c>
+      <c r="C250">
+        <v>35</v>
+      </c>
+      <c r="D250">
+        <v>1116</v>
+      </c>
+      <c r="E250">
+        <v>36</v>
+      </c>
+      <c r="F250">
+        <v>1008</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>394500</v>
+      </c>
+      <c r="C251">
+        <v>35</v>
+      </c>
+      <c r="D251">
+        <v>1120</v>
+      </c>
+      <c r="E251">
+        <v>36</v>
+      </c>
+      <c r="F251">
+        <v>1012</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>396000</v>
+      </c>
+      <c r="C252">
+        <v>35</v>
+      </c>
+      <c r="D252">
+        <v>1124</v>
+      </c>
+      <c r="E252">
+        <v>36</v>
+      </c>
+      <c r="F252">
+        <v>1016</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>397500</v>
+      </c>
+      <c r="C253">
+        <v>35</v>
+      </c>
+      <c r="D253">
+        <v>1128</v>
+      </c>
+      <c r="E253">
+        <v>36</v>
+      </c>
+      <c r="F253">
+        <v>1020</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>399000</v>
+      </c>
+      <c r="C254">
+        <v>35</v>
+      </c>
+      <c r="D254">
+        <v>1132</v>
+      </c>
+      <c r="E254">
+        <v>36</v>
+      </c>
+      <c r="F254">
+        <v>1024</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>400500</v>
+      </c>
+      <c r="C255">
+        <v>35</v>
+      </c>
+      <c r="D255">
+        <v>1136</v>
+      </c>
+      <c r="E255">
+        <v>36</v>
+      </c>
+      <c r="F255">
+        <v>1028</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
